--- a/items.xlsx
+++ b/items.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>id</t>
   </si>
@@ -32,6 +32,60 @@
   </si>
   <si>
     <t>publicated</t>
+  </si>
+  <si>
+    <t>687655485537824</t>
+  </si>
+  <si>
+    <t>Portátil Lenovo corporativo i7 6500u 8gb ram SSD 240</t>
+  </si>
+  <si>
+    <t> 1400.000</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Bucaramanga</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/687655485537824</t>
+  </si>
+  <si>
+    <t>Publicado hace 2 días en Bucaramanga</t>
+  </si>
+  <si>
+    <t>2666697420305309</t>
+  </si>
+  <si>
+    <t>Portátil DELL Core i5 4RAM. SSD</t>
+  </si>
+  <si>
+    <t> 600  </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/2666697420305309</t>
+  </si>
+  <si>
+    <t>Publicado  en Bucaramanga</t>
+  </si>
+  <si>
+    <t>865809797461566</t>
+  </si>
+  <si>
+    <t>core I7  8 GB ram disco SOLIDO 240 TARJETA VIDEO NVIDIA nvs5400m  se da mause funda leer descripcion</t>
+  </si>
+  <si>
+    <t> 1050</t>
+  </si>
+  <si>
+    <t>cargador  original batería buena(() NOTA touchpad mause no funciona se usa con mause inalambrico )))) se entrega con mause inalambrico equipo súper rápido todo lo demás 100% precio. mínimo 1.050.000 bucaramanga mas información ver imágenes</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/865809797461566</t>
+  </si>
+  <si>
+    <t>Publicado hace 3 días en Bucaramanga</t>
   </si>
   <si>
     <t>278573630855861</t>
@@ -49,97 +103,10 @@
 Excelente estado 9/10 nunca ha sido reparado ni abierto.</t>
   </si>
   <si>
-    <t>Bucaramanga</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/marketplace/item/278573630855861</t>
   </si>
   <si>
     <t>Publicado hace una semana en Bucaramanga</t>
-  </si>
-  <si>
-    <t>555284678896214</t>
-  </si>
-  <si>
-    <t>Portátil DELL</t>
-  </si>
-  <si>
-    <t> 2000</t>
-  </si>
-  <si>
-    <t>Pocos días de uso</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/marketplace/item/555284678896214</t>
-  </si>
-  <si>
-    <t>Publicado hace 5 días en Bucaramanga</t>
-  </si>
-  <si>
-    <t>243567474500802</t>
-  </si>
-  <si>
-    <t>Portatil vostro i5 dell</t>
-  </si>
-  <si>
-    <t> 600000</t>
-  </si>
-  <si>
-    <t>Portatil dell vostro 3400  disco ssd 240 memoria 4 gigas, procesador i5 con cargador y batería en buenas condiciones</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/marketplace/item/243567474500802</t>
-  </si>
-  <si>
-    <t>Publicado  en Bucaramanga</t>
-  </si>
-  <si>
-    <t>687655485537824</t>
-  </si>
-  <si>
-    <t>Portátil Lenovo corporativo i7 6500u 8gb ram SSD 240</t>
-  </si>
-  <si>
-    <t> 1400.000</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/marketplace/item/687655485537824</t>
-  </si>
-  <si>
-    <t>Publicado hace 2 días en Bucaramanga</t>
-  </si>
-  <si>
-    <t>2666697420305309</t>
-  </si>
-  <si>
-    <t>Portátil DELL Core i5 4RAM. SSD</t>
-  </si>
-  <si>
-    <t> 600  </t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/marketplace/item/2666697420305309</t>
-  </si>
-  <si>
-    <t>865809797461566</t>
-  </si>
-  <si>
-    <t>core I7  8 GB ram disco SOLIDO 240 TARJETA VIDEO NVIDIA nvs5400m  se da mause funda leer descripcion</t>
-  </si>
-  <si>
-    <t> 1050</t>
-  </si>
-  <si>
-    <t>cargador  original batería buena(() NOTA touchpad mause no funciona se usa con mause inalambrico )))) se entrega con mause inalambrico equipo súper rápido todo lo demás 100% precio. mínimo 1.050.000 bucaramanga mas información ver imágenes</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/marketplace/item/865809797461566</t>
-  </si>
-  <si>
-    <t>Publicado hace 3 días en Bucaramanga</t>
   </si>
   <si>
     <t>1290917121368025</t>
@@ -169,6 +136,633 @@
   </si>
   <si>
     <t>Publicado hace 2 semanas en Bucaramanga</t>
+  </si>
+  <si>
+    <t>1289295318161596</t>
+  </si>
+  <si>
+    <t>core i5 7ma generación año 2021 con 4 GB de ram ddr 4 garantía batería larga duración 1tb de disco</t>
+  </si>
+  <si>
+    <t> 1199</t>
+  </si>
+  <si>
+    <t>equipo como nuevo ni la mas mínima raya  precio mínimo 1.199.000 no negociable, somos tienda física</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/1289295318161596</t>
+  </si>
+  <si>
+    <t>Publicado hace 21 horas en Bucaramanga</t>
+  </si>
+  <si>
+    <t>476704350348726</t>
+  </si>
+  <si>
+    <t>VENDO COMPUTADOR PORTATIL COMO NUEVO</t>
+  </si>
+  <si>
+    <t> 28  </t>
+  </si>
+  <si>
+    <t>Portátil como nuevo¡¡ 4 meses de uso 
+Marca: hp
+HP Pavilion Gaming Laptop
+Gráficos NVIDIA GeForce GTX 1050
+Intel CORE i5 
+Vigente la garantía de 1 año, se entrega con factura 
+Suscripción a Microsoft 365 por 1 año
+Mouse Microsoft inalámbrico  
+Mas información por el interno o al numero [hidden information]- [hidden information]
+</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/476704350348726</t>
+  </si>
+  <si>
+    <t>1214974385655330</t>
+  </si>
+  <si>
+    <t>Portatil</t>
+  </si>
+  <si>
+    <t> 1100.000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/1214974385655330</t>
+  </si>
+  <si>
+    <t>Publicado hace 4 días en Bucaramanga</t>
+  </si>
+  <si>
+    <t>473357887399276</t>
+  </si>
+  <si>
+    <t>Portatil core i5</t>
+  </si>
+  <si>
+    <t> 550000</t>
+  </si>
+  <si>
+    <t>Core i5 - 4gb ram- disco solido 240gb - 14 pulgadas
+Se entrega con tarjeta de audio. Por que se le va el sonido.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/473357887399276</t>
+  </si>
+  <si>
+    <t>Publicado hace un día en Bucaramanga</t>
+  </si>
+  <si>
+    <t>569887127554447</t>
+  </si>
+  <si>
+    <t>Portátil Asus negro</t>
+  </si>
+  <si>
+    <t> 800000  </t>
+  </si>
+  <si>
+    <t>Intel Core i3- 3217u 
+180 GHz
+4.0 GB
+G4 bits procesador
+Permítanos tener el gusto de resolver sus inquietudes sobre este producto a través de WhatsApp  [hidden information] o  puedes encontrarnos en el C.C Sanandresito centro piso 4 local B-20 y B-18. </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/569887127554447</t>
+  </si>
+  <si>
+    <t>450494550115810</t>
+  </si>
+  <si>
+    <t>Portátil surface go</t>
+  </si>
+  <si>
+    <t> 1  </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/450494550115810</t>
+  </si>
+  <si>
+    <t>223324863223102</t>
+  </si>
+  <si>
+    <t>Portátil core i5 4ta generación, DD: 1T 8 ram</t>
+  </si>
+  <si>
+    <t> 750  </t>
+  </si>
+  <si>
+    <t>Core i 5 4ta generación 
+1 tera de disco duro mecánico
+8 de ram DDR3 
+Anti reflejos
+Cargador original
+Bateria 2 horas 
+Excelente estado 
+No touchpad - no funciona 
+Precio 750 negociables</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/223324863223102</t>
+  </si>
+  <si>
+    <t>571844290772942</t>
+  </si>
+  <si>
+    <t>Portátil intel core i3 8 RAM ssd120 buen estado</t>
+  </si>
+  <si>
+    <t> 450000</t>
+  </si>
+  <si>
+    <t>Portátil intel core i3 con 8 de ram disco duro de estado sólido de 120gb con salida hdmi y vga unidad de CD todo funcional batería le dura 1 hora y 20 min con cargador original y forro para guardarlo buen estado todo más información al 3️⃣0️⃣0️⃣5️⃣3️⃣7️⃣5️⃣4️⃣2️⃣3️⃣</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/571844290772942</t>
+  </si>
+  <si>
+    <t>985255605361506</t>
+  </si>
+  <si>
+    <t>Portátil Asus</t>
+  </si>
+  <si>
+    <t> 7777</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/985255605361506</t>
+  </si>
+  <si>
+    <t>Publicado hace 5 días en Bucaramanga</t>
+  </si>
+  <si>
+    <t>555284678896214</t>
+  </si>
+  <si>
+    <t>Portátil DELL</t>
+  </si>
+  <si>
+    <t> 2000</t>
+  </si>
+  <si>
+    <t>Pocos días de uso</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/555284678896214</t>
+  </si>
+  <si>
+    <t>1044724206323401</t>
+  </si>
+  <si>
+    <t>ryzen 3 3200U tarjeta gráfica RADEON de 2   GB  video. con 8 GB ram SOLIDO SSD M2 512 GB impecabl</t>
+  </si>
+  <si>
+    <t> 1399</t>
+  </si>
+  <si>
+    <t>caja cargador garantía de 3 meses precio mínimo 1.399.000 tienda física bucaramanga no  rayas  no golpes  tienda física 8 am 7 pm todos los días del año años 2021 memorias más. rápidas DDR4 sod isppnoblw más. informacion whatsapp</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/1044724206323401</t>
+  </si>
+  <si>
+    <t>Publicado hace 20 horas en Bucaramanga</t>
+  </si>
+  <si>
+    <t>1507344726291333</t>
+  </si>
+  <si>
+    <t>Portátil dell 1525</t>
+  </si>
+  <si>
+    <t> 330000  </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/1507344726291333</t>
+  </si>
+  <si>
+    <t>621940378852887</t>
+  </si>
+  <si>
+    <t>Lenovo Intel celeron 4 Gb de ram disco duro sólido de 500 Gb impecable año 2021 ddr4</t>
+  </si>
+  <si>
+    <t>Equipo se entrega con su funda cargador original garantía de 3 meses a toda prueba Windows 10 no tiene golpes ni rayas ubicación bucaramanga</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/621940378852887</t>
+  </si>
+  <si>
+    <t>237307341662467</t>
+  </si>
+  <si>
+    <t>Portátil Asus core I3 de séptima generación</t>
+  </si>
+  <si>
+    <t> 900000</t>
+  </si>
+  <si>
+    <t>Vendo portátil Asus X407U core I3 de séptima generación 4 de ram y 1 de tera con su respectivo cargador original y caja WhatsApp [hidden information] </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/237307341662467</t>
+  </si>
+  <si>
+    <t>913301372635257</t>
+  </si>
+  <si>
+    <t>Portátil económico</t>
+  </si>
+  <si>
+    <t> 300000  </t>
+  </si>
+  <si>
+    <t>Tiene un problema con la batería del resto está en buen estado </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/913301372635257</t>
+  </si>
+  <si>
+    <t>190152073274465</t>
+  </si>
+  <si>
+    <t>Portátil HP</t>
+  </si>
+  <si>
+    <t> 480000</t>
+  </si>
+  <si>
+    <t>Procesador celeron 
+Ram de 4 gigas 
+Disco ssd de 120</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/190152073274465</t>
+  </si>
+  <si>
+    <t>402909718179069</t>
+  </si>
+  <si>
+    <t>Portátil core i5</t>
+  </si>
+  <si>
+    <t> 650000  </t>
+  </si>
+  <si>
+    <t>Marca Dell 
+Disco sólido 120 GB
+Ram 6gb
+Windows 10
+Estamos en San andresito centro 4 piso local A36  
+Inf wasapth ..con gusto atiendo cualquier inquietud ..</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/402909718179069</t>
+  </si>
+  <si>
+    <t>569907880905228</t>
+  </si>
+  <si>
+    <t>Vendo computador portátil en excelente estado</t>
+  </si>
+  <si>
+    <t> 1000.000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/569907880905228</t>
+  </si>
+  <si>
+    <t>Publicado hace 3 semanas en Bucaramanga</t>
+  </si>
+  <si>
+    <t>859504018081126</t>
+  </si>
+  <si>
+    <t>Mini portatil Asus Le hace. Falta él cargador y la bateria para venderlo a necesito el billete regal</t>
+  </si>
+  <si>
+    <t> 70000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/859504018081126</t>
+  </si>
+  <si>
+    <t>275458044456175</t>
+  </si>
+  <si>
+    <t>Portatil hp dv2000</t>
+  </si>
+  <si>
+    <t> 350000  </t>
+  </si>
+  <si>
+    <t>Procesador Intel dual Core memoria RAM de 3gb disco duro de 160 gb pantalla de 14 pulgadas cámara wifi micrófono red cargador original batería ok...garantia de un mes </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/275458044456175</t>
+  </si>
+  <si>
+    <t>456023762616086</t>
+  </si>
+  <si>
+    <t>Barato! Portátil HP de 14" 10/10</t>
+  </si>
+  <si>
+    <t> 550000  </t>
+  </si>
+  <si>
+    <t>Excelente estado impecable todo le sirve 
+Procesador Celeron de 2.16 GHz
+Memoria ram de 4 GB 
+Disco mecánico de 500 GB 
+Batería buena 2 horas y media de autonomía </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/456023762616086</t>
+  </si>
+  <si>
+    <t>302198955241483</t>
+  </si>
+  <si>
+    <t>Portátil acer económico</t>
+  </si>
+  <si>
+    <t> 280000</t>
+  </si>
+  <si>
+    <t>Pantalla de 15"
+Procesador intel core dos duo
+Memoria ram de 3 gigas
+Disco duro de 160 Gigas
+Windows 10
+Recien formateado
+Cámara y microfono
+Batería dura 1 hora aproximadamente 
+</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/302198955241483</t>
+  </si>
+  <si>
+    <t>243567474500802</t>
+  </si>
+  <si>
+    <t>Portatil vostro i5 dell</t>
+  </si>
+  <si>
+    <t> 600000</t>
+  </si>
+  <si>
+    <t>Portatil dell vostro 3400  disco ssd 240 memoria 4 gigas, procesador i5 con cargador y batería en buenas condiciones</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/243567474500802</t>
+  </si>
+  <si>
+    <t>3178954835724480</t>
+  </si>
+  <si>
+    <t>economico portatil HPcorporativo</t>
+  </si>
+  <si>
+    <t> 220000  </t>
+  </si>
+  <si>
+    <t>pantalla de 14"
+procesador turion (tm) x2 ultra dualcore 2,2 ghz
+memoria ram de 3g
+disco duro de 120g al 100%
+camara microfono
+wifi
+bateria no funciona
+cargador original
+recien formateado windows 10
+en buen estado 
+excelente rendimiento
+</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/3178954835724480</t>
+  </si>
+  <si>
+    <t>1096113044545198</t>
+  </si>
+  <si>
+    <t>Portatil Dell inspiron</t>
+  </si>
+  <si>
+    <t> 370000  </t>
+  </si>
+  <si>
+    <t>Procesador Intel dual core memoria RAM de 3gb disco duro de 160 gb pantalla de 15.6 cámara wifi micrófono HDMI red teclado ok cargador original...garantia de un mes </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/1096113044545198</t>
+  </si>
+  <si>
+    <t>1147214502476269</t>
+  </si>
+  <si>
+    <t>Se Vende </t>
+  </si>
+  <si>
+    <t> 0  </t>
+  </si>
+  <si>
+    <t>se vende computador  JANUS
+en perfectas condiciones muy bien equipa
+sus características son 
+procesador Intel Core i3 de novena generación a 3.60GHz
+4 GB DE memoria RAM 
+disco duro de 1TB 
+con sistema operativo Windows 10 pro 
+CPU con sus múltiples puertos USB 
+monitor led 
+también se vende el stand y la caja de registradora para punto de Efecty 
+mas información al WhatsApp [hidden information]</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/1147214502476269</t>
+  </si>
+  <si>
+    <t>1014554829104740</t>
+  </si>
+  <si>
+    <t>Vendo portatil marca  acer espin inpecable</t>
+  </si>
+  <si>
+    <t> 1200</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/1014554829104740</t>
+  </si>
+  <si>
+    <t>1020390252141448</t>
+  </si>
+  <si>
+    <t>PORTATIL ASUS</t>
+  </si>
+  <si>
+    <t> 1200.000  </t>
+  </si>
+  <si>
+    <t>PROCESADOR: Intel(R) Core(TM) i7 -4710HQ cpu @2.50GHZ 2.50GHZ
+RAM: 8.00 GB
+DISCO DURO: 256 SOLIDO / 1 TERA MECANICO
+TARJETA GRAFICA: NVIDIA GEFORCEGTX 850M</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/1020390252141448</t>
+  </si>
+  <si>
+    <t>1108443456627193</t>
+  </si>
+  <si>
+    <t>Vendo portátil hp en buen estado</t>
+  </si>
+  <si>
+    <t> 600000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/1108443456627193</t>
+  </si>
+  <si>
+    <t>Publicado hace 6 días en Bucaramanga</t>
+  </si>
+  <si>
+    <t>948510649380986</t>
+  </si>
+  <si>
+    <t>Portatil dell inspiron</t>
+  </si>
+  <si>
+    <t>Procesador Intel Core 2 duo memoria RAM de 3gb disco duro de 250gb pantalla led de 15.6 cámara wifi micrófono red teclado ok cargador original ...garantia de un mes </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/948510649380986</t>
+  </si>
+  <si>
+    <t>1504124026611918</t>
+  </si>
+  <si>
+    <t>Portátil dell inspiron 1420</t>
+  </si>
+  <si>
+    <t>Procesador Intel dual Core memoria RAM de 3gb disco duro de 160 gb pantalla de 14 pulgadas cámara wifi micrófono red teclado ok cargador original..Garantia de un mes</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/1504124026611918</t>
+  </si>
+  <si>
+    <t>282130010498840</t>
+  </si>
+  <si>
+    <t>PORTATIL LENOVO</t>
+  </si>
+  <si>
+    <t> 500000  </t>
+  </si>
+  <si>
+    <t>Portátil Lenovo Celeron N2830
+Memoria Ram 4 GB 
+Disco Duro sólido de 240 GB
+Pantalla de 14 pulgadas 
+Batería le funciona bien 
+Cargador original </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/282130010498840</t>
+  </si>
+  <si>
+    <t>309309854108480</t>
+  </si>
+  <si>
+    <t>PORTATIL HP CELERON</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/309309854108480</t>
+  </si>
+  <si>
+    <t>295278672598531</t>
+  </si>
+  <si>
+    <t>PORTATIL INTEL CORE I5 PANTALLA TÁCTIL</t>
+  </si>
+  <si>
+    <t> 680000</t>
+  </si>
+  <si>
+    <t>PORTATIL MARCA SONY VAIO 
+PROCESADOR INTEL CORE i5 
+MEMORIA RAM DE 4 GB EXPANDIBLE 
+DISCO DURO DE 320 GB WINDOWS 10 OFFICE PROFESIONAL ACTIVADOS 
+PANTALLA TOUCH TÁCTIL PERFECTO ESTADO UNICO DETALLE HAY QUE USARLO CONECTADO 
+INFO [hidden information]</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/295278672598531</t>
+  </si>
+  <si>
+    <t>4384983871599699</t>
+  </si>
+  <si>
+    <t>Portatil dell inspiron 1525</t>
+  </si>
+  <si>
+    <t> 380000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/4384983871599699</t>
+  </si>
+  <si>
+    <t>609503536857364</t>
+  </si>
+  <si>
+    <t>💥💥💻💻 EXCELENTE PORTATIL DELL INTEL PEMTIUM MUY BIEN CUIDADO CON GARANTÍA 💻💻💥💥</t>
+  </si>
+  <si>
+    <t> 350000</t>
+  </si>
+  <si>
+    <t>💥💥💻💻
+INTEL PEMTIUM
+4GB DE RAM
+DISCO DE 320GB
+WINDOWS 10
+PANTALLS 14 PULGADAS
+GARANTÍA 60 DIAS 💻💻💥💥</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/609503536857364</t>
+  </si>
+  <si>
+    <t>295084375812802</t>
+  </si>
+  <si>
+    <t>Mini Inspiron Dell</t>
+  </si>
+  <si>
+    <t> 200000</t>
+  </si>
+  <si>
+    <t>Vendo mini portatil Dell ojo no tiene pila de bateria funciona conectado con el cargador windows 10 </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/295084375812802</t>
+  </si>
+  <si>
+    <t>608886603869523</t>
+  </si>
+  <si>
+    <t>Vendo portátil acer</t>
+  </si>
+  <si>
+    <t> 650000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marketplace/item/608886603869523</t>
   </si>
 </sst>
 </file>
@@ -208,7 +802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -271,76 +865,76 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>11</v>
@@ -349,53 +943,881 @@
         <v>35</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>47</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
